--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Cd74.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/App-Cd74.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H2">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I2">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J2">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N2">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O2">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P2">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q2">
-        <v>261.6313190642965</v>
+        <v>506.76231656355</v>
       </c>
       <c r="R2">
-        <v>1046.525276257186</v>
+        <v>2027.0492662542</v>
       </c>
       <c r="S2">
-        <v>0.000121026189358787</v>
+        <v>0.0004127531197852345</v>
       </c>
       <c r="T2">
-        <v>5.887729813964764E-05</v>
+        <v>0.0001996927014538385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H3">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I3">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J3">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.506796</v>
       </c>
       <c r="O3">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P3">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q3">
-        <v>51.17699287667267</v>
+        <v>53.59232634169999</v>
       </c>
       <c r="R3">
-        <v>307.061957260036</v>
+        <v>321.5539580502</v>
       </c>
       <c r="S3">
-        <v>2.367360472307732E-05</v>
+        <v>4.36504435532769E-05</v>
       </c>
       <c r="T3">
-        <v>1.727524295409367E-05</v>
+        <v>3.167756187045049E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H4">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I4">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J4">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N4">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O4">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P4">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q4">
-        <v>102041.1064224396</v>
+        <v>131560.5763439807</v>
       </c>
       <c r="R4">
-        <v>612246.6385346374</v>
+        <v>789363.4580638844</v>
       </c>
       <c r="S4">
-        <v>0.04720247679991</v>
+        <v>0.1071548466645149</v>
       </c>
       <c r="T4">
-        <v>0.0344448707449491</v>
+        <v>0.0777633400400804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H5">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I5">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J5">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N5">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O5">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P5">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q5">
-        <v>70.32945931150149</v>
+        <v>76.57728180738749</v>
       </c>
       <c r="R5">
-        <v>281.317837246006</v>
+        <v>306.30912722955</v>
       </c>
       <c r="S5">
-        <v>3.253320929075435E-05</v>
+        <v>6.237147265607418E-05</v>
       </c>
       <c r="T5">
-        <v>1.582688402402573E-05</v>
+        <v>3.017573283231967E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H6">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I6">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J6">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N6">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O6">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P6">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q6">
-        <v>2680.870482546006</v>
+        <v>30451.58786998815</v>
       </c>
       <c r="R6">
-        <v>16085.22289527604</v>
+        <v>182709.5272199289</v>
       </c>
       <c r="S6">
-        <v>0.001240124996607382</v>
+        <v>0.02480253066365406</v>
       </c>
       <c r="T6">
-        <v>0.0009049513523791017</v>
+        <v>0.01799944366390441</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>101.8923455</v>
+        <v>106.701225</v>
       </c>
       <c r="H7">
-        <v>203.784691</v>
+        <v>213.40245</v>
       </c>
       <c r="I7">
-        <v>0.1893849302940161</v>
+        <v>0.181220606382352</v>
       </c>
       <c r="J7">
-        <v>0.138161740144498</v>
+        <v>0.131398665727629</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N7">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O7">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P7">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q7">
-        <v>304302.3812239526</v>
+        <v>59846.55537124857</v>
       </c>
       <c r="R7">
-        <v>1825814.287343715</v>
+        <v>359079.3322274914</v>
       </c>
       <c r="S7">
-        <v>0.1407650954941261</v>
+        <v>0.04874445401818846</v>
       </c>
       <c r="T7">
-        <v>0.102719938622052</v>
+        <v>0.03537433602748754</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>216.91135</v>
       </c>
       <c r="I8">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J8">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N8">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O8">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P8">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q8">
-        <v>185.6560874520167</v>
+        <v>343.3965518044333</v>
       </c>
       <c r="R8">
-        <v>1113.9365247121</v>
+        <v>2060.3793108266</v>
       </c>
       <c r="S8">
-        <v>8.588134201952105E-05</v>
+        <v>0.0002796932475996313</v>
       </c>
       <c r="T8">
-        <v>6.266984119932472E-05</v>
+        <v>0.0002029761769721906</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>216.91135</v>
       </c>
       <c r="I9">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J9">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.506796</v>
       </c>
       <c r="O9">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P9">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q9">
         <v>36.31568383717777</v>
@@ -1013,10 +1013,10 @@
         <v>326.8411545346</v>
       </c>
       <c r="S9">
-        <v>1.679901643461883E-05</v>
+        <v>2.957878143460892E-05</v>
       </c>
       <c r="T9">
-        <v>1.838801655002851E-05</v>
+        <v>3.219842466676432E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>216.91135</v>
       </c>
       <c r="I10">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J10">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N10">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O10">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P10">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q10">
-        <v>72409.34550732937</v>
+        <v>89149.18649887704</v>
       </c>
       <c r="R10">
-        <v>651684.1095659644</v>
+        <v>802342.6784898934</v>
       </c>
       <c r="S10">
-        <v>0.03349532919857445</v>
+        <v>0.07261117026864164</v>
       </c>
       <c r="T10">
-        <v>0.03666361480442324</v>
+        <v>0.07904197476928167</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>216.91135</v>
       </c>
       <c r="I11">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J11">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N11">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O11">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P11">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q11">
-        <v>49.90645728151667</v>
+        <v>51.89094307077499</v>
       </c>
       <c r="R11">
-        <v>299.4387436891</v>
+        <v>311.34565842465</v>
       </c>
       <c r="S11">
-        <v>2.308587660980568E-05</v>
+        <v>4.226468295097561E-05</v>
       </c>
       <c r="T11">
-        <v>1.684636251672533E-05</v>
+        <v>3.06719015920285E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>216.91135</v>
       </c>
       <c r="I12">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J12">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N12">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O12">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P12">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q12">
-        <v>1902.371346577111</v>
+        <v>20634.86161014163</v>
       </c>
       <c r="R12">
-        <v>17121.342119194</v>
+        <v>185713.7544912747</v>
       </c>
       <c r="S12">
-        <v>0.0008800045638457786</v>
+        <v>0.01680689985727155</v>
       </c>
       <c r="T12">
-        <v>0.00096324320814107</v>
+        <v>0.01829540206490812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>216.91135</v>
       </c>
       <c r="I13">
-        <v>0.1343893586842299</v>
+        <v>0.1228002345746721</v>
       </c>
       <c r="J13">
-        <v>0.147061339230297</v>
+        <v>0.1335592068937293</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N13">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O13">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P13">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q13">
-        <v>215935.8814625978</v>
+        <v>40553.72722111759</v>
       </c>
       <c r="R13">
-        <v>1943422.93316338</v>
+        <v>364983.5449900583</v>
       </c>
       <c r="S13">
-        <v>0.0998882586867457</v>
+        <v>0.03303062773677367</v>
       </c>
       <c r="T13">
-        <v>0.1093365769974666</v>
+        <v>0.03595598355630856</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H14">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I14">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J14">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N14">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O14">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P14">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q14">
-        <v>390.4833597210933</v>
+        <v>667.5997890875146</v>
       </c>
       <c r="R14">
-        <v>2342.90015832656</v>
+        <v>4005.598734525088</v>
       </c>
       <c r="S14">
-        <v>0.000180630947411332</v>
+        <v>0.0005437537218284474</v>
       </c>
       <c r="T14">
-        <v>0.0001318110840347448</v>
+        <v>0.0003946074945260271</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H15">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I15">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J15">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.506796</v>
       </c>
       <c r="O15">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P15">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q15">
-        <v>76.38139115139555</v>
+        <v>70.60159090961422</v>
       </c>
       <c r="R15">
-        <v>687.4325203625599</v>
+        <v>635.414318186528</v>
       </c>
       <c r="S15">
-        <v>3.533272982010462E-05</v>
+        <v>5.750432886832404E-05</v>
       </c>
       <c r="T15">
-        <v>3.867481308910996E-05</v>
+        <v>6.259719674973328E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H16">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I16">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J16">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N16">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O16">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P16">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q16">
-        <v>152295.8115564893</v>
+        <v>173315.5961853355</v>
       </c>
       <c r="R16">
-        <v>1370662.304008404</v>
+        <v>1559840.36566802</v>
       </c>
       <c r="S16">
-        <v>0.07044944693129862</v>
+        <v>0.1411639158926375</v>
       </c>
       <c r="T16">
-        <v>0.07711318106954801</v>
+        <v>0.1536660907273322</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H17">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I17">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J17">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N17">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O17">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P17">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q17">
-        <v>104.9663459922933</v>
+        <v>100.881568168252</v>
       </c>
       <c r="R17">
-        <v>629.79807595376</v>
+        <v>605.289409009512</v>
       </c>
       <c r="S17">
-        <v>4.855564277165642E-05</v>
+        <v>8.216708431012765E-05</v>
       </c>
       <c r="T17">
-        <v>3.543231102675562E-05</v>
+        <v>5.962947189234669E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H18">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I18">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J18">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N18">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O18">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P18">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q18">
-        <v>4001.185013879821</v>
+        <v>40116.38785070281</v>
       </c>
       <c r="R18">
-        <v>36010.66512491839</v>
+        <v>361047.4906563253</v>
       </c>
       <c r="S18">
-        <v>0.001850879997399527</v>
+        <v>0.03267441895083294</v>
       </c>
       <c r="T18">
-        <v>0.002025952659595185</v>
+        <v>0.03556822715785422</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>152.0737866666666</v>
+        <v>140.5663226666667</v>
       </c>
       <c r="H19">
-        <v>456.2213599999999</v>
+        <v>421.698968</v>
       </c>
       <c r="I19">
-        <v>0.2826560066517826</v>
+        <v>0.2387368489030063</v>
       </c>
       <c r="J19">
-        <v>0.3093084994725608</v>
+        <v>0.2596534469680085</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N19">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O19">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P19">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q19">
-        <v>454169.6942721769</v>
+        <v>78840.80255689153</v>
       </c>
       <c r="R19">
-        <v>4087527.248449592</v>
+        <v>709567.2230120238</v>
       </c>
       <c r="S19">
-        <v>0.2100911604030814</v>
+        <v>0.06421508892452898</v>
       </c>
       <c r="T19">
-        <v>0.229963447535267</v>
+        <v>0.06990229491965398</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H20">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I20">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J20">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N20">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O20">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P20">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q20">
-        <v>95.48652246748949</v>
+        <v>169.032640940861</v>
       </c>
       <c r="R20">
-        <v>381.946089869958</v>
+        <v>676.130563763444</v>
       </c>
       <c r="S20">
-        <v>4.417043796856158E-05</v>
+        <v>0.0001376754893043205</v>
       </c>
       <c r="T20">
-        <v>2.148820894892528E-05</v>
+        <v>6.660831636466849E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H21">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I21">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J21">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.506796</v>
       </c>
       <c r="O21">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P21">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q21">
-        <v>18.677859736418</v>
+        <v>17.87593938936067</v>
       </c>
       <c r="R21">
-        <v>112.067158418508</v>
+        <v>107.255636336164</v>
       </c>
       <c r="S21">
-        <v>8.640059597456155E-06</v>
+        <v>1.45597837701989E-05</v>
       </c>
       <c r="T21">
-        <v>6.304875426867465E-06</v>
+        <v>1.056618017266934E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H22">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I22">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J22">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N22">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O22">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P22">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q22">
-        <v>37241.52917112826</v>
+        <v>43882.56769746629</v>
       </c>
       <c r="R22">
-        <v>223449.1750267695</v>
+        <v>263295.4061847978</v>
       </c>
       <c r="S22">
-        <v>0.01722729670742555</v>
+        <v>0.03574193685935715</v>
       </c>
       <c r="T22">
-        <v>0.01257120491552875</v>
+        <v>0.02593827975310514</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H23">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I23">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J23">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N23">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O23">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P23">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q23">
-        <v>25.6678578111045</v>
+        <v>25.54266518424525</v>
       </c>
       <c r="R23">
-        <v>102.671431244418</v>
+        <v>102.170660736981</v>
       </c>
       <c r="S23">
-        <v>1.187351358006848E-05</v>
+        <v>2.080425950753346E-05</v>
       </c>
       <c r="T23">
-        <v>5.776273736475291E-06</v>
+        <v>1.006523896165273E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H24">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I24">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J24">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N24">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O24">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P24">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q24">
-        <v>978.4264379340198</v>
+        <v>10157.25153640403</v>
       </c>
       <c r="R24">
-        <v>5870.558627604119</v>
+        <v>60943.5092184242</v>
       </c>
       <c r="S24">
-        <v>0.0004526033953983365</v>
+        <v>0.008272985427416607</v>
       </c>
       <c r="T24">
-        <v>0.000330276428487128</v>
+        <v>0.006003787966334447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.1872365</v>
+        <v>35.5906295</v>
       </c>
       <c r="H25">
-        <v>74.37447299999999</v>
+        <v>71.181259</v>
       </c>
       <c r="I25">
-        <v>0.06911905067863602</v>
+        <v>0.06044687359043559</v>
       </c>
       <c r="J25">
-        <v>0.05042433051072508</v>
+        <v>0.0438285617499367</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N25">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O25">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P25">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q25">
-        <v>111060.0071335906</v>
+        <v>19962.06303225987</v>
       </c>
       <c r="R25">
-        <v>666360.0428015437</v>
+        <v>119772.3781935592</v>
       </c>
       <c r="S25">
-        <v>0.05137446656466605</v>
+        <v>0.01625891177107978</v>
       </c>
       <c r="T25">
-        <v>0.03748927980859694</v>
+        <v>0.01179925429499812</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H26">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I26">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J26">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N26">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O26">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P26">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q26">
-        <v>228.4669866795313</v>
+        <v>327.865484651194</v>
       </c>
       <c r="R26">
-        <v>1370.801920077188</v>
+        <v>1967.192907907164</v>
       </c>
       <c r="S26">
-        <v>0.0001056849343992844</v>
+        <v>0.0002670433401152621</v>
       </c>
       <c r="T26">
-        <v>7.712103584104126E-05</v>
+        <v>0.0001937960130523787</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H27">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I27">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J27">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.506796</v>
       </c>
       <c r="O27">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P27">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q27">
-        <v>44.68980774805423</v>
+        <v>34.67320571260933</v>
       </c>
       <c r="R27">
-        <v>402.208269732488</v>
+        <v>312.058851413484</v>
       </c>
       <c r="S27">
-        <v>2.067274344014836E-05</v>
+        <v>2.824099851757624E-05</v>
       </c>
       <c r="T27">
-        <v>2.262815504654077E-05</v>
+        <v>3.074216107558875E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H28">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I28">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J28">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N28">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O28">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P28">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q28">
-        <v>89106.39668506548</v>
+        <v>85117.16580765227</v>
       </c>
       <c r="R28">
-        <v>801957.5701655893</v>
+        <v>766054.4922688705</v>
       </c>
       <c r="S28">
-        <v>0.04121910051462792</v>
+        <v>0.06932712750353019</v>
       </c>
       <c r="T28">
-        <v>0.04511796898289448</v>
+        <v>0.07546708092828151</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H29">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I29">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J29">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N29">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O29">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P29">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q29">
-        <v>61.41451146279134</v>
+        <v>49.5440303914185</v>
       </c>
       <c r="R29">
-        <v>368.487068776748</v>
+        <v>297.264182348511</v>
       </c>
       <c r="S29">
-        <v>2.840930634855134E-05</v>
+        <v>4.035314474340559E-05</v>
       </c>
       <c r="T29">
-        <v>2.07310071731528E-05</v>
+        <v>2.928467926600283E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H30">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I30">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J30">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N30">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O30">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P30">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q30">
-        <v>2341.043889607369</v>
+        <v>19701.59242126688</v>
       </c>
       <c r="R30">
-        <v>21069.39500646632</v>
+        <v>177314.331791402</v>
       </c>
       <c r="S30">
-        <v>0.001082927006193873</v>
+        <v>0.01604676091892335</v>
       </c>
       <c r="T30">
-        <v>0.001185359856624106</v>
+        <v>0.01746794146120519</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>88.97649266666667</v>
+        <v>69.033643</v>
       </c>
       <c r="H31">
-        <v>266.929478</v>
+        <v>207.100929</v>
       </c>
       <c r="I31">
-        <v>0.1653785353432923</v>
+        <v>0.117246251345688</v>
       </c>
       <c r="J31">
-        <v>0.180972579418846</v>
+        <v>0.1275186191234094</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N31">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O31">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P31">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q31">
-        <v>265729.0737450167</v>
+        <v>38719.57176010403</v>
       </c>
       <c r="R31">
-        <v>2391561.66370515</v>
+        <v>348476.1458409363</v>
       </c>
       <c r="S31">
-        <v>0.1229217408382825</v>
+        <v>0.03153672543985823</v>
       </c>
       <c r="T31">
-        <v>0.1345487703812667</v>
+        <v>0.03432977388052873</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H32">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I32">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J32">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.567723</v>
+        <v>4.749358</v>
       </c>
       <c r="N32">
-        <v>5.135446</v>
+        <v>9.498716</v>
       </c>
       <c r="O32">
-        <v>0.0006390486781123313</v>
+        <v>0.002277627958679152</v>
       </c>
       <c r="P32">
-        <v>0.0004261476301476093</v>
+        <v>0.001519746797640803</v>
       </c>
       <c r="Q32">
-        <v>219.754803537636</v>
+        <v>781.7267335948487</v>
       </c>
       <c r="R32">
-        <v>1318.528821225816</v>
+        <v>4690.360401569093</v>
       </c>
       <c r="S32">
-        <v>0.0001016548269548452</v>
+        <v>0.0006367090400462558</v>
       </c>
       <c r="T32">
-        <v>7.418016198392558E-05</v>
+        <v>0.0004620660952716999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H33">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I33">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J33">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.506796</v>
       </c>
       <c r="O33">
-        <v>0.0001250025790664788</v>
+        <v>0.0002408690955441354</v>
       </c>
       <c r="P33">
-        <v>0.0001250363735722072</v>
+        <v>0.0002410797833831406</v>
       </c>
       <c r="Q33">
-        <v>42.985641227824</v>
+        <v>82.67101330845024</v>
       </c>
       <c r="R33">
-        <v>386.870771050416</v>
+        <v>744.0391197760521</v>
       </c>
       <c r="S33">
-        <v>1.988442505107353E-05</v>
+        <v>6.733475940015038E-05</v>
       </c>
       <c r="T33">
-        <v>2.176527050556682E-05</v>
+        <v>7.329825884793444E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H34">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I34">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J34">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1001.459981333333</v>
+        <v>1232.980936666667</v>
       </c>
       <c r="N34">
-        <v>3004.379944</v>
+        <v>3698.94281</v>
       </c>
       <c r="O34">
-        <v>0.2492409334081078</v>
+        <v>0.5912950453241066</v>
       </c>
       <c r="P34">
-        <v>0.2493083158110527</v>
+        <v>0.5918122502192901</v>
       </c>
       <c r="Q34">
-        <v>85708.48235916073</v>
+        <v>202944.0948029503</v>
       </c>
       <c r="R34">
-        <v>771376.3412324466</v>
+        <v>1826496.853226552</v>
       </c>
       <c r="S34">
-        <v>0.03964728325627125</v>
+        <v>0.1652960481354252</v>
       </c>
       <c r="T34">
-        <v>0.04339747529370911</v>
+        <v>0.1799354840012092</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H35">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I35">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J35">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.690233</v>
+        <v>0.7176795</v>
       </c>
       <c r="N35">
-        <v>1.380466</v>
+        <v>1.435359</v>
       </c>
       <c r="O35">
-        <v>0.00017178351646167</v>
+        <v>0.0003441742851498822</v>
       </c>
       <c r="P35">
-        <v>0.0001145533054771386</v>
+        <v>0.0002296502225895485</v>
       </c>
       <c r="Q35">
-        <v>59.072578042956</v>
+        <v>118.1273871759055</v>
       </c>
       <c r="R35">
-        <v>354.435468257736</v>
+        <v>708.7643230554331</v>
       </c>
       <c r="S35">
-        <v>2.732596786083378E-05</v>
+        <v>9.621364098176572E-05</v>
       </c>
       <c r="T35">
-        <v>1.994046700000386E-05</v>
+        <v>6.982319804519811E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H36">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I36">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J36">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>26.31081333333333</v>
+        <v>285.391174</v>
       </c>
       <c r="N36">
-        <v>78.93243999999999</v>
+        <v>856.173522</v>
       </c>
       <c r="O36">
-        <v>0.006548171465818924</v>
+        <v>0.1368637439128966</v>
       </c>
       <c r="P36">
-        <v>0.006549941767038025</v>
+        <v>0.136983458425786</v>
       </c>
       <c r="Q36">
-        <v>2251.772334859359</v>
+        <v>46974.33005636113</v>
       </c>
       <c r="R36">
-        <v>20265.95101373423</v>
+        <v>422768.9705072501</v>
       </c>
       <c r="S36">
-        <v>0.001041631506374027</v>
+        <v>0.03826014809479807</v>
       </c>
       <c r="T36">
-        <v>0.001140158261811435</v>
+        <v>0.0416486561115796</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>85.58353199999999</v>
+        <v>164.5962956666667</v>
       </c>
       <c r="H37">
-        <v>256.750596</v>
+        <v>493.788887</v>
       </c>
       <c r="I37">
-        <v>0.1590721183480431</v>
+        <v>0.279549185203846</v>
       </c>
       <c r="J37">
-        <v>0.1740715112230731</v>
+        <v>0.3040414995372872</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2986.508748333333</v>
+        <v>560.8797403333333</v>
       </c>
       <c r="N37">
-        <v>8959.526244999999</v>
+        <v>1682.639221</v>
       </c>
       <c r="O37">
-        <v>0.7432750603524327</v>
+        <v>0.2689785394236237</v>
       </c>
       <c r="P37">
-        <v>0.7434760051127124</v>
+        <v>0.2692138145513105</v>
       </c>
       <c r="Q37">
-        <v>255595.9670312658</v>
+        <v>92318.72757334857</v>
       </c>
       <c r="R37">
-        <v>2300363.703281391</v>
+        <v>830868.548160137</v>
       </c>
       <c r="S37">
-        <v>0.118234338365531</v>
+        <v>0.07519273153319457</v>
       </c>
       <c r="T37">
-        <v>0.1294179917680631</v>
+        <v>0.08185217187233358</v>
       </c>
     </row>
   </sheetData>
